--- a/Assignments/A4/PhoneSurvey.xlsx
+++ b/Assignments/A4/PhoneSurvey.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwe/Documents/Economics/Teaching/MACSS/MACS30000/Fall2018/Assignments/A4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenhsieh/Documents/UChicago/2018 Fall/Perspecitves on Computational Analysis/persp-analysis_A18/Assignments/A4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFAB015-092A-7748-BEF6-F563EAB7DF11}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="720" windowWidth="25440" windowHeight="14420" xr2:uid="{BDE4B2C5-7C5C-EF4E-A801-B6684FDFD484}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="25440" windowHeight="14420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Survey Response sheet for MACS 30000 (Autumn 2018), Assignment 4</t>
   </si>
@@ -44,11 +46,14 @@
   <si>
     <t>Sample ID</t>
   </si>
+  <si>
+    <t>not vote</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;___&quot;\-000\-0000"/>
   </numFmts>
@@ -409,11 +414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C33F710-E8FA-AE4D-9C3A-3CA0D51B8626}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,6 +457,9 @@
       <c r="B4" s="1">
         <v>4310454</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -460,6 +468,9 @@
       <c r="B5" s="1">
         <v>6920338</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -468,6 +479,9 @@
       <c r="B6" s="1">
         <v>6918070</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -476,6 +490,9 @@
       <c r="B7" s="1">
         <v>3605305</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -484,6 +501,9 @@
       <c r="B8" s="1">
         <v>8892229</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -492,6 +512,9 @@
       <c r="B9" s="1">
         <v>3421805</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -500,6 +523,9 @@
       <c r="B10" s="1">
         <v>4172517</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -508,6 +534,9 @@
       <c r="B11" s="1">
         <v>8613530</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -516,6 +545,9 @@
       <c r="B12" s="1">
         <v>5087341</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -524,6 +556,9 @@
       <c r="B13" s="1">
         <v>2438163</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -532,6 +567,9 @@
       <c r="B14" s="1">
         <v>4037270</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -540,6 +578,9 @@
       <c r="B15" s="1">
         <v>5652672</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -548,320 +589,443 @@
       <c r="B16" s="1">
         <v>7393216</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>7229394</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>5151305</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>4877748</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" s="1">
         <v>4265519</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" s="1">
         <v>6516979</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" s="1">
         <v>8565245</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" s="1">
         <v>8407755</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" s="1">
         <v>2709233</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" s="1">
         <v>9181750</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" s="1">
         <v>4860050</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>8194429</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" s="1">
         <v>7497881</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>6978928</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" s="1">
         <v>4670541</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" s="1">
         <v>8642160</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" s="1">
         <v>3109656</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" s="1">
         <v>2536524</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" s="1">
         <v>4159593</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" s="1">
         <v>9156659</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" s="1">
         <v>2630658</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" s="1">
         <v>3103116</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" s="1">
         <v>3526990</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" s="1">
         <v>8903095</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" s="1">
         <v>8761170</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41" s="1">
         <v>9173160</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" s="1">
         <v>8450958</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" s="1">
         <v>5849527</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44" s="1">
         <v>9874505</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45" s="1">
         <v>5080490</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46" s="1">
         <v>7459046</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47" s="1">
         <v>4455876</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48" s="1">
         <v>9744213</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
       <c r="B49" s="1">
         <v>3099226</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="B50" s="1">
         <v>7441722</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="B51" s="1">
         <v>6900989</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="B52" s="1">
         <v>8572189</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53" s="1">
         <v>7154223</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54" s="1">
         <v>6231491</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
       <c r="B55" s="1">
         <v>3660183</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
@@ -869,7 +1033,7 @@
         <v>5014048</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
@@ -877,7 +1041,7 @@
         <v>3395385</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
@@ -885,7 +1049,7 @@
         <v>5220200</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
@@ -893,7 +1057,7 @@
         <v>4510321</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>57</v>
       </c>
@@ -901,7 +1065,7 @@
         <v>8189798</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58</v>
       </c>
@@ -909,7 +1073,7 @@
         <v>2687999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>59</v>
       </c>
@@ -917,7 +1081,7 @@
         <v>9551750</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60</v>
       </c>
@@ -925,7 +1089,7 @@
         <v>3894955</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>61</v>
       </c>
